--- a/output/downloads/sww/商务委.xlsx
+++ b/output/downloads/sww/商务委.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,29 +446,54 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>详情页链接</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>发布时间</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>生效日期</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>发布文号</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>是否有效</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>zip包文件数量</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>zip包路径</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>附件列表</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>唯一ID</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>关于2025年燃料油非国营贸易进口申请企业有关情况的公示</t>
+          <t>关于实施鼓励外商投资企业境内再投资若干措施的通知</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,48 +503,398 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025年07月17日</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">商贸资源〔2025〕183号
-</t>
-        </is>
-      </c>
+          <t>http://www.mofcom.gov.cn/zcfb/wgtzgl/art/2025/art_dc1b799007d14b30918f60bffc5a6d31.html</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['2025年新增成品油（燃料油）非国营贸易进口企业名单.pdf']</t>
+          <t>928</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关_附件1\output\downloads\sww\2025-07-19_关于实施鼓励外商投资企业境内再投资若干措施的通知.zip</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>商务委-2025-07-19-928</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>关于2025年燃料油非国营贸易进口申请企业有关情况的公示</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>商务委</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_552350cddbea441296885699d34b8919.html</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关_附件1\output\downloads\sww\2025-07-19_关于2025年燃料油非国营贸易进口申请企业有关情况的公示.zip</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>['2025年新增成品油（燃料油）非国营贸易进口企业名单.pdf']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>商务委-2025-07-19-183</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>商务部办公厅关于做好境外投资者以分配利润直接投资税收抵免政策落实工作的通知</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>商务委</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025年07月14日</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">商办资函〔2025〕380号
-</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_e916e2db0cfc455e936d3f567e14ef69.html</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关_附件1\output\downloads\sww\2025-07-19_商务部办公厅关于做好境外投资者以分配利润直接投资税收抵免政策落实工作的通知.zip</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>['利润再投资情况表', '商务主管部门政策咨询受理联系表']</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>商务委-2025-07-19-380</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>商务部公告2025年第35号 公布将8家台湾地区实体列入出口管制管控名单</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>商务委</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_5513f405165c4edfb56f5b0577b70eea.html</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关_附件1\output\downloads\sww\2025-07-19_商务部公告2025年第35号 公布将8家台湾地区实体列入出口管制管控名单.zip</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>商务委-2025-07-19-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>关于发布2025年蔺草及蔺草制品出口配额招标第二次招标系数的通知</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>商务委</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_56aac691e778475da0b06b70a075990c.html</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关_附件1\output\downloads\sww\2025-07-19_关于发布2025年蔺草及蔺草制品出口配额招标第二次招标系数的通知.zip</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>商务委-2025-07-19-133</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>关于境外投资者以分配利润直接投资税收抵免政策的公告</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>商务委</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>http://www.mofcom.gov.cn/zcfb/wgtzgl/art/2025/art_6454974b7ef047aa8bece340c5898950.html</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关_附件1\output\downloads\sww\2025-07-19_关于境外投资者以分配利润直接投资税收抵免政策的公告.zip</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>商务委-2025-07-19-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>商务部公告2025年第33号 公布对原产于欧盟、英国、韩国和印度尼西亚的进口不锈钢钢坯和不锈钢热轧板/卷所适用反倾销措施的期终复审裁定</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>商务委</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_3c3f7a5f2bb14c1b900a3931f9d2212b.html</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关_附件1\output\downloads\sww\2025-07-19_商务部公告2025年第33号 公布对原产于欧盟、英国、韩国和印度尼西亚的进口不锈钢钢坯和不锈钢热轧板卷所适用反倾销措施的期终复审裁定.zip</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>['中华人民共和国商务部关于原产于欧盟、英国、韩 国和印度尼西亚的进口不锈钢钢坯和不锈钢热轧/板卷所适用反倾销措施的期终复审裁定.pdf']</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>商务委-2025-07-19-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>商务部公告2025年第31号 公布对原产于欧盟的进口甲苯胺所适用反倾销措施的期终复审裁定</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>商务委</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_546ec67d115846a5840cb26e4e8aef49.html</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关_附件1\output\downloads\sww\2025-07-19_商务部公告2025年第31号 公布对原产于欧盟的进口甲苯胺所适用反倾销措施的期终复审裁定.zip</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>['附件：中华人民共和国商务部关于原产于欧盟的进口甲苯胺所适用反倾销措施的期终复审裁定.pdf']</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>商务委-2025-07-19-31</t>
         </is>
       </c>
     </row>

--- a/output/downloads/sww/商务委.xlsx
+++ b/output/downloads/sww/商务委.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>关于实施鼓励外商投资企业境内再投资若干措施的通知</t>
+          <t>商务部公告2025年第47号 公布对原产于美国、欧盟、韩国、日本和泰国的进口苯酚所适用反倾销措施的期终复审裁定</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -503,48 +503,48 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://www.mofcom.gov.cn/zcfb/wgtzgl/art/2025/art_dc1b799007d14b30918f60bffc5a6d31.html</t>
+          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_d4508ad585684076890d2e13aaef8cd2.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\sww\2025-07-19_关于实施鼓励外商投资企业境内再投资若干措施的通知.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\sww\2025-08-28_商务部公告2025年第47号 公布对原产于美国、欧盟、韩国、日本和泰国的进口苯酚所适用反倾销措施的期终复审裁定.zip</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['中华人民共和国商务部关于原产于美国、欧盟、韩 国、日本和泰国的进口苯酚所适用反倾销措施的期终复审裁定.pdf']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>商务委-2025-07-19-928</t>
+          <t>商务委-2025-08-28-47</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>关于2025年燃料油非国营贸易进口申请企业有关情况的公示</t>
+          <t>商务部公告2025年第37号 公布延长对原产于欧盟的进口相关乳制品反补贴调查期限决定</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -554,48 +554,48 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_552350cddbea441296885699d34b8919.html</t>
+          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_bced1803c632419c8277bcc87d4bf8ff.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\sww\2025-07-19_关于2025年燃料油非国营贸易进口申请企业有关情况的公示.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\sww\2025-08-28_商务部公告2025年第37号 公布延长对原产于欧盟的进口相关乳制品反补贴调查期限决定.zip</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['2025年新增成品油（燃料油）非国营贸易进口企业名单.pdf']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>商务委-2025-07-19-183</t>
+          <t>商务委-2025-08-28-37</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>商务部办公厅关于做好境外投资者以分配利润直接投资税收抵免政策落实工作的通知</t>
+          <t>商务部公告2025年第42号 公布对原产于印度的进口单模光纤所适用的反倾销措施发起期终复审调查</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -605,48 +605,48 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_e916e2db0cfc455e936d3f567e14ef69.html</t>
+          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_5a72066180d140e686d975a85243c5db.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\sww\2025-07-19_商务部办公厅关于做好境外投资者以分配利润直接投资税收抵免政策落实工作的通知.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\sww\2025-08-28_商务部公告2025年第42号 公布对原产于印度的进口单模光纤所适用的反倾销措施发起期终复审调查.zip</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['利润再投资情况表', '商务主管部门政策咨询受理联系表']</t>
+          <t>['单模光纤反倾销措施期终复审调查申请书（公开文本)-正文.pdf', '单模光纤反倾销措施期终复审调查申请书（公开文本)-附件.pdf', '单模光纤反倾销措施期终复审调查登记参加调查的参考格式.doc']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>商务委-2025-07-19-380</t>
+          <t>商务委-2025-08-28-42</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>商务部公告2025年第35号 公布将8家台湾地区实体列入出口管制管控名单</t>
+          <t>商务部公告2025年第40号 公布对原产于加拿大的进口油菜籽反倾销调查的初步裁定</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -656,48 +656,48 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_5513f405165c4edfb56f5b0577b70eea.html</t>
+          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_128dbb7d60f242c8ba857e4347915270.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\sww\2025-07-19_商务部公告2025年第35号 公布将8家台湾地区实体列入出口管制管控名单.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\sww\2025-08-28_商务部公告2025年第40号 公布对原产于加拿大的进口油菜籽反倾销调查的初步裁定.zip</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['中华人民共和国商务部关于原产于加拿大的进口油菜籽反倾销调查的初步裁定.pdf']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>商务委-2025-07-19-35</t>
+          <t>商务委-2025-08-28-40</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>关于发布2025年蔺草及蔺草制品出口配额招标第二次招标系数的通知</t>
+          <t>商务部公告2025年第39号 公布对原产于加拿大、日本和印度的进口卤化丁基橡胶反倾销调查的初步裁定</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -707,48 +707,48 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_56aac691e778475da0b06b70a075990c.html</t>
+          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_4f4cb7a9a87442d5bdc718ff97f1e679.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\sww\2025-07-19_关于发布2025年蔺草及蔺草制品出口配额招标第二次招标系数的通知.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\sww\2025-08-28_商务部公告2025年第39号 公布对原产于加拿大、日本和印度的进口卤化丁基橡胶反倾销调查的初步裁定.zip</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['附件：中华人民共和国商务部关于原产于加拿大、日本和印度的进口卤化丁基橡胶反倾销调查的初步裁定.pdf']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>商务委-2025-07-19-133</t>
+          <t>商务委-2025-08-28-39</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>关于境外投资者以分配利润直接投资税收抵免政策的公告</t>
+          <t>商务部公告2025年第41号 公布对原产于加拿大的进口豌豆淀粉发起反倾销立案调查</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -758,48 +758,48 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://www.mofcom.gov.cn/zcfb/wgtzgl/art/2025/art_6454974b7ef047aa8bece340c5898950.html</t>
+          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_7f14b21fd4d6430fa0e5d541a0f67caf.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\sww\2025-07-19_关于境外投资者以分配利润直接投资税收抵免政策的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\sww\2025-08-28_商务部公告2025年第41号 公布对原产于加拿大的进口豌豆淀粉发起反倾销立案调查.zip</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['附件1：豌豆淀粉反倾销调查申请书（公开文本）.pdf', '附件2：豌豆淀粉反倾销调查申请书附件（公开文本）.pdf', '附件3：豌豆淀粉反倾销案登记参加调查参考格式.wps']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>商务委-2025-07-19-2</t>
+          <t>商务委-2025-08-28-41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>商务部公告2025年第33号 公布对原产于欧盟、英国、韩国和印度尼西亚的进口不锈钢钢坯和不锈钢热轧板/卷所适用反倾销措施的期终复审裁定</t>
+          <t>公布延长对进口牛肉保障措施调查期限决定</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -809,48 +809,48 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_3c3f7a5f2bb14c1b900a3931f9d2212b.html</t>
+          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_e399d211d3474657ac7993aad2b976e7.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\sww\2025-07-19_商务部公告2025年第33号 公布对原产于欧盟、英国、韩国和印度尼西亚的进口不锈钢钢坯和不锈钢热轧板卷所适用反倾销措施的期终复审裁定.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\sww\2025-08-28_公布延长对进口牛肉保障措施调查期限决定.zip</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['中华人民共和国商务部关于原产于欧盟、英国、韩 国和印度尼西亚的进口不锈钢钢坯和不锈钢热轧/板卷所适用反倾销措施的期终复审裁定.pdf']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>商务委-2025-07-19-33</t>
+          <t>商务委-2025-08-28-38</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>商务部公告2025年第31号 公布对原产于欧盟的进口甲苯胺所适用反倾销措施的期终复审裁定</t>
+          <t>成品油流通管理办法</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -860,41 +860,449 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_546ec67d115846a5840cb26e4e8aef49.html</t>
+          <t>http://www.mofcom.gov.cn/zcfb/gnmygl/art/2025/art_7b528bbb8f0e4efda86478a1bccc6233.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\sww\2025-08-28_成品油流通管理办法.zip</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>商务委-2025-08-28-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>中国企业境外可持续基础设施项目实施指引</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>商务委</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_2a3c61a4a39447129c975d1f66ec03ed.html</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\sww\2025-07-19_商务部公告2025年第31号 公布对原产于欧盟的进口甲苯胺所适用反倾销措施的期终复审裁定.zip</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>['附件：中华人民共和国商务部关于原产于欧盟的进口甲苯胺所适用反倾销措施的期终复审裁定.pdf']</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>商务委-2025-07-19-31</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\sww\2025-09-08_中国企业境外可持续基础设施项目实施指引.zip</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>['中国企业境外可持续基础设施项目实施指引.pdf']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>商务委-2025-09-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>商务部公告2025年第45号 公布延长对原产于加拿大的进口油菜籽反倾销调查期限决定</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>商务委</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_2467746387534b568c7965f36dd57bee.html</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\sww\2025-09-08_商务部公告2025年第45号 公布延长对原产于加拿大的进口油菜籽反倾销调查期限决定.zip</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>商务委-2025-09-08-45</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>商务部公告2025年第46号 公布对原产于欧盟的进口相关猪肉及猪副产品反倾销调查的初步裁定</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>商务委</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_f316f78ea7624121a82483494afa673d.html</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\sww\2025-09-08_商务部公告2025年第46号 公布对原产于欧盟的进口相关猪肉及猪副产品反倾销调查的初步裁定.zip</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>['欧盟相关猪肉及猪副产品反倾销调查的初步裁定.pdf', '各公司保证金比率列表.pdf']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>商务委-2025-09-08-46</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>商务部公告2025年第44号 公布延长对原产于加拿大、日本和印度的进口卤化丁基橡胶反倾销调查期限决定</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>商务委</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_730fcadb151e43f0b62ece558ce0455e.html</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\sww\2025-09-08_商务部公告2025年第44号 公布延长对原产于加拿大、日本和印度的进口卤化丁基橡胶反倾销调查期限决定.zip</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>商务委-2025-09-08-44</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>商务部公告2025年第48号 公布对原产于美国的进口相关截止波长位移单模光纤反规避调查的裁决</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>商务委</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_17f1eb76236149b3aab6186ff9338bef.html</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\sww\2025-09-08_商务部公告2025年第48号 公布对原产于美国的进口相关截止波长位移单模光纤反规避调查的裁决.zip</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>['中华人民共和国商务部关于对原产于美国的进口相关截止波长位移单模光纤反规避调查的裁定.pdf']</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>商务委-2025-09-08-48</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>商务部公告2025年第47号 公布对原产于美国、欧盟、韩国、日本和泰国的进口苯酚所适用反倾销措施的期终复审裁定</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>商务委</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_d4508ad585684076890d2e13aaef8cd2.html</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\sww\2025-09-08_商务部公告2025年第47号 公布对原产于美国、欧盟、韩国、日本和泰国的进口苯酚所适用反倾销措施的期终复审裁定.zip</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>['中华人民共和国商务部关于原产于美国、欧盟、韩 国、日本和泰国的进口苯酚所适用反倾销措施的期终复审裁定.pdf']</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>商务委-2025-09-08-47</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>商务部公告2025年第37号 公布延长对原产于欧盟的进口相关乳制品反补贴调查期限决定</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>商务委</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_bced1803c632419c8277bcc87d4bf8ff.html</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\sww\2025-09-08_商务部公告2025年第37号 公布延长对原产于欧盟的进口相关乳制品反补贴调查期限决定.zip</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>商务委-2025-09-08-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>商务部公告2025年第42号 公布对原产于印度的进口单模光纤所适用的反倾销措施发起期终复审调查</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>商务委</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>http://www.mofcom.gov.cn/zcfb/zc/art/2025/art_5a72066180d140e686d975a85243c5db.html</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\sww\2025-09-08_商务部公告2025年第42号 公布对原产于印度的进口单模光纤所适用的反倾销措施发起期终复审调查.zip</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>['单模光纤反倾销措施期终复审调查申请书（公开文本)-正文.pdf', '单模光纤反倾销措施期终复审调查申请书（公开文本)-附件.pdf', '单模光纤反倾销措施期终复审调查登记参加调查的参考格式.doc']</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>商务委-2025-09-08-42</t>
         </is>
       </c>
     </row>
